--- a/SignInSingOUt/Client Info.xlsx
+++ b/SignInSingOUt/Client Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jreyes\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B837916F-11AC-4F56-9522-431BB11D32F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8331D7D-B095-4388-8CBD-052B2B95724F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{57FD4FBA-C28A-45A0-9D77-736280548A65}"/>
   </bookViews>
@@ -92,12 +92,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -106,11 +121,11 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -118,8 +133,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF757A50-F8F9-4334-99D6-8CF356146B00}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,46 +524,326 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="66.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
       <c r="F1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="4"/>
-      <c r="H1" s="2"/>
+      <c r="H1" s="1"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="5" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
